--- a/デバッグシート.xlsx
+++ b/デバッグシート.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>魔法で攻撃するとモーションとダメージがでない</t>
     <rPh sb="0" eb="2">
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>どのようなバグなのか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>解決方法</t>
     <rPh sb="0" eb="2">
       <t>カイケツ</t>
@@ -80,6 +76,110 @@
   </si>
   <si>
     <t>たまに敵がシールド張ってるときに主人公が集中すると敵行動のテキストが見えない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像を攻撃したときに消す。確認した限りだとターンがかかりすぎているから</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃ボタンを押したときにボタンのインタラクトをfalseにする</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像の大きさを変更したら修正できた</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵のフラグを初期化したら修正できた</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターン経過したときに効果のフラグを一度初期化したら修正できた</t>
+    <rPh sb="3" eb="5">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターン経過までの時間を長くしたら修正できた</t>
+    <rPh sb="3" eb="5">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースツリーをフェッチプルしたら修正できた</t>
+    <rPh sb="16" eb="18">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのようなバグなのか</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -87,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +200,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -141,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -153,6 +262,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,25 +552,25 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="77.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="73.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -465,6 +580,9 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
@@ -473,13 +591,19 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -487,7 +611,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -495,7 +622,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -503,7 +633,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -511,12 +644,15 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A10:A1048576 A1:A8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="1"/>

--- a/デバッグシート.xlsx
+++ b/デバッグシート.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>魔法で攻撃するとモーションとダメージがでない</t>
     <rPh sb="0" eb="2">
@@ -180,6 +180,82 @@
   </si>
   <si>
     <t>どのようなバグなのか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム効果が出ていない</t>
+    <rPh sb="4" eb="6">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPの初期化</t>
+    <rPh sb="3" eb="6">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの取得ができていないときがあった</t>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リトライ時、ステージ２から初まる</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒エフェクトが重複、ナイトの防御エフェクトをおおきくする</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ボウギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負けた時、変数に数字を入れなおす</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Retry_Num_tmpの数値を初期化</t>
+    <rPh sb="14" eb="16">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ショキカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -549,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -648,6 +724,52 @@
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/デバッグシート.xlsx
+++ b/デバッグシート.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>魔法で攻撃するとモーションとダメージがでない</t>
     <rPh sb="0" eb="2">
@@ -255,6 +255,161 @@
     </rPh>
     <rPh sb="17" eb="20">
       <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム説明文の数字が全角と半角でバラバラ</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライダーの端が残る</t>
+    <rPh sb="6" eb="7">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コカトリスのステージで設定が開けない</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログよりも前にてきが来ている</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マホウが二回発動するときがある</t>
+    <rPh sb="4" eb="6">
+      <t>ニカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト位置調整（毒、ドラゴンの炎）</t>
+    <rPh sb="5" eb="7">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ホノオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの効果が発動していないときがある</t>
+    <rPh sb="5" eb="7">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リロールボタンのUIを合わせる</t>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法攻撃力を上げる</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉛筆のマイナス効果が発動してないかも</t>
+    <rPh sb="0" eb="2">
+      <t>エンピツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の防御が攻撃から引かれていない</t>
+    <rPh sb="2" eb="4">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリティカルの初期化ができていない</t>
+    <rPh sb="7" eb="10">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要望</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘ログを見たい</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -289,12 +444,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -326,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,6 +504,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -706,24 +870,29 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -731,7 +900,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -739,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -747,32 +916,134 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C24">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A10:A1048576 A1:A8">
     <cfRule type="colorScale" priority="1">

--- a/デバッグシート.xlsx
+++ b/デバッグシート.xlsx
@@ -24,24 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>魔法で攻撃するとモーションとダメージがでない</t>
-    <rPh sb="0" eb="2">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CDを持っているとバグる？</t>
-    <rPh sb="3" eb="4">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>バグの致命度</t>
     <rPh sb="3" eb="5">
@@ -63,140 +46,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一度ゲームオーバーになると敵が2回行動したりエフェクトが重なったりする</t>
-  </si>
-  <si>
-    <t>岸君のだけ魔法がずっと出ていた</t>
-  </si>
-  <si>
-    <t>敵のシールドの画像がしばらく出る、お金が増えない</t>
-  </si>
-  <si>
-    <t>攻撃連打したらフリーズする</t>
-  </si>
-  <si>
-    <t>たまに敵がシールド張ってるときに主人公が集中すると敵行動のテキストが見えない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像を攻撃したときに消す。確認した限りだとターンがかかりすぎているから</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃ボタンを押したときにボタンのインタラクトをfalseにする</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像の大きさを変更したら修正できた</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵のフラグを初期化したら修正できた</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ショキカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ターン経過したときに効果のフラグを一度初期化したら修正できた</t>
-    <rPh sb="3" eb="5">
-      <t>ケイカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ショキカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ターン経過までの時間を長くしたら修正できた</t>
-    <rPh sb="3" eb="5">
-      <t>ケイカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ソースツリーをフェッチプルしたら修正できた</t>
-    <rPh sb="16" eb="18">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>どのようなバグなのか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテム効果が出ていない</t>
-    <rPh sb="4" eb="6">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HPの初期化</t>
-    <rPh sb="3" eb="6">
-      <t>ショキカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -207,16 +57,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リトライ時、ステージ２から初まる</t>
-    <rPh sb="4" eb="5">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>毒エフェクトが重複、ナイトの防御エフェクトをおおきくする</t>
     <rPh sb="0" eb="1">
       <t>ドク</t>
@@ -230,35 +70,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>負けた時、変数に数字を入れなおす</t>
-    <rPh sb="0" eb="1">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Retry_Num_tmpの数値を初期化</t>
-    <rPh sb="14" eb="16">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ショキカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテム説明文の数字が全角と半角でバラバラ</t>
     <rPh sb="4" eb="6">
       <t>セツメイ</t>
@@ -344,13 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リロールボタンのUIを合わせる</t>
-    <rPh sb="11" eb="12">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>魔法攻撃力を上げる</t>
     <rPh sb="0" eb="2">
       <t>マホウ</t>
@@ -360,32 +164,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鉛筆のマイナス効果が発動してないかも</t>
-    <rPh sb="0" eb="2">
-      <t>エンピツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハツドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の防御が攻撃から引かれていない</t>
-    <rPh sb="2" eb="4">
-      <t>ボウギョ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -789,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -803,36 +581,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -840,208 +612,86 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="6">
-        <v>3</v>
+      <c r="A9" s="1">
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C24">
+  <sortState ref="A2:C26">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <phoneticPr fontId="1"/>

--- a/デバッグシート.xlsx
+++ b/デバッグシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="7020"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17970" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -663,27 +663,27 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
       <c r="B21" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C26">
+  <sortState ref="A2:C21">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <phoneticPr fontId="1"/>

--- a/デバッグシート.xlsx
+++ b/デバッグシート.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\monja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takum\Desktop\monja\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502216D0-E6CC-4177-BBFC-B164FC996873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17970" windowHeight="7020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>バグの致命度</t>
     <rPh sb="3" eb="5">
@@ -36,16 +37,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>解決方法</t>
-    <rPh sb="0" eb="2">
-      <t>カイケツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>どのようなバグなのか</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -188,6 +179,35 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△　　要検証</t>
+    <rPh sb="3" eb="6">
+      <t>ヨウケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇　　完了</t>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -195,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,11 +285,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -281,10 +298,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,132 +580,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="77.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="73.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="77.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
+      <c r="B21" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <phoneticPr fontId="1"/>

--- a/デバッグシート.xlsx
+++ b/デバッグシート.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takum\Desktop\monja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\monja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502216D0-E6CC-4177-BBFC-B164FC996873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>バグの致命度</t>
     <rPh sb="3" eb="5">
@@ -61,25 +60,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテム説明文の数字が全角と半角でバラバラ</t>
-    <rPh sb="4" eb="6">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スライダーの端が残る</t>
     <rPh sb="6" eb="7">
       <t>ハシ</t>
@@ -90,36 +70,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コカトリスのステージで設定が開けない</t>
-    <rPh sb="11" eb="13">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログよりも前にてきが来ている</t>
-    <rPh sb="5" eb="6">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マホウが二回発動するときがある</t>
-    <rPh sb="4" eb="6">
-      <t>ニカイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハツドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エフェクト位置調整（毒、ドラゴンの炎）</t>
     <rPh sb="5" eb="7">
       <t>イチ</t>
@@ -159,13 +109,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クリティカルの初期化ができていない</t>
-    <rPh sb="7" eb="10">
-      <t>ショキカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>要望</t>
     <rPh sb="0" eb="2">
       <t>ヨウボウ</t>
@@ -190,10 +133,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -209,13 +148,96 @@
     <rPh sb="3" eb="5">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力低下系の効果の条件を見直す</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御効果の見直し</t>
+    <rPh sb="0" eb="2">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イントロの文章の間隔の見直し</t>
+    <rPh sb="5" eb="7">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログの見直し</t>
+    <rPh sb="3" eb="5">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔導書のエフェクトが出現していない</t>
+    <rPh sb="0" eb="3">
+      <t>マドウショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドリルの効果が発動していない</t>
+    <rPh sb="4" eb="6">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,11 +602,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -597,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -611,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -622,10 +644,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -636,10 +658,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -647,32 +669,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -680,10 +693,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -691,7 +704,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -699,29 +715,26 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -729,14 +742,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
+  <sortState ref="A1:E21">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <phoneticPr fontId="1"/>

--- a/デバッグシート.xlsx
+++ b/デバッグシート.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$21</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>バグの致命度</t>
     <rPh sb="3" eb="5">
@@ -47,19 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>毒エフェクトが重複、ナイトの防御エフェクトをおおきくする</t>
-    <rPh sb="0" eb="1">
-      <t>ドク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ボウギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スライダーの端が残る</t>
     <rPh sb="6" eb="7">
       <t>ハシ</t>
@@ -186,19 +176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イントロの文章の間隔の見直し</t>
-    <rPh sb="5" eb="7">
-      <t>ブンショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ミナオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -210,16 +187,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>魔導書のエフェクトが出現していない</t>
-    <rPh sb="0" eb="3">
-      <t>マドウショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ドリルの効果が発動していない</t>
     <rPh sb="4" eb="6">
       <t>コウカ</t>
@@ -231,6 +198,22 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×　　まだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -273,7 +256,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +589,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -619,10 +602,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -633,21 +616,21 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -655,13 +638,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -669,23 +652,35 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -693,10 +688,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -704,10 +699,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -715,55 +710,32 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A12" s="4"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A1:E21">
+  <autoFilter ref="A1:E21"/>
+  <sortState ref="A2:C21">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <phoneticPr fontId="1"/>

--- a/デバッグシート.xlsx
+++ b/デバッグシート.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>バグの致命度</t>
     <rPh sb="3" eb="5">
@@ -43,39 +43,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテムの取得ができていないときがあった</t>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スライダーの端が残る</t>
-    <rPh sb="6" eb="7">
-      <t>ハシ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ノコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エフェクト位置調整（毒、ドラゴンの炎）</t>
-    <rPh sb="5" eb="7">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ドク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ホノオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテムの効果が発動していないときがある</t>
     <rPh sb="5" eb="7">
       <t>コウカ</t>
@@ -86,19 +53,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>魔法攻撃力を上げる</t>
-    <rPh sb="0" eb="2">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>要望</t>
     <rPh sb="0" eb="2">
       <t>ヨウボウ</t>
@@ -176,10 +130,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログの見直し</t>
     <rPh sb="3" eb="5">
       <t>ミナオ</t>
@@ -187,20 +137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドリルの効果が発動していない</t>
-    <rPh sb="4" eb="6">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハツドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -213,7 +149,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×</t>
+    <t>敵のステータスを調整する</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -589,7 +535,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -602,10 +548,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -616,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -624,13 +570,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -638,27 +584,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -666,10 +612,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -677,54 +623,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">

--- a/デバッグシート.xlsx
+++ b/デバッグシート.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>バグの致命度</t>
     <rPh sb="3" eb="5">
@@ -156,6 +156,10 @@
     <rPh sb="8" eb="10">
       <t>チョウセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -535,7 +539,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -601,7 +605,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
